--- a/_site/Dataout/dnsp_pes_2025-07-11.xlsx
+++ b/_site/Dataout/dnsp_pes_2025-07-11.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
-    <t xml:space="preserve">Dados Retirados em: 11/07/2025 02:39</t>
+    <t xml:space="preserve">Dados Retirados em: 11/07/2025 14:06</t>
   </si>
   <si>
     <t xml:space="preserve">Acções necessárias após a criação do Excel</t>
